--- a/data/pca/factorExposure/factorExposure_2015-08-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02049717303863227</v>
+        <v>0.01540999546923897</v>
       </c>
       <c r="C2">
-        <v>0.02851453791266403</v>
+        <v>0.04550151466111564</v>
       </c>
       <c r="D2">
-        <v>0.131899271239117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1402543648258341</v>
+      </c>
+      <c r="E2">
+        <v>0.004829795053598904</v>
+      </c>
+      <c r="F2">
+        <v>-0.002971610206382851</v>
+      </c>
+      <c r="G2">
+        <v>0.1118520241009315</v>
+      </c>
+      <c r="H2">
+        <v>0.0391961110534484</v>
+      </c>
+      <c r="I2">
+        <v>-0.06669020779240693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.02520275550378833</v>
+        <v>-0.02268323073128122</v>
       </c>
       <c r="C3">
-        <v>0.03538889731288909</v>
+        <v>0.01666168737469099</v>
       </c>
       <c r="D3">
-        <v>0.01467252654475261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.02187072332144881</v>
+      </c>
+      <c r="E3">
+        <v>0.04601575560370155</v>
+      </c>
+      <c r="F3">
+        <v>-0.0227025549485839</v>
+      </c>
+      <c r="G3">
+        <v>0.1020355574517733</v>
+      </c>
+      <c r="H3">
+        <v>0.007281711156824514</v>
+      </c>
+      <c r="I3">
+        <v>0.07414399613304053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03536896808109335</v>
+        <v>0.02631241067352094</v>
       </c>
       <c r="C4">
-        <v>0.06878346190716297</v>
+        <v>0.08826151275934636</v>
       </c>
       <c r="D4">
-        <v>0.1392415967128422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1524005470661382</v>
+      </c>
+      <c r="E4">
+        <v>0.0207691879898966</v>
+      </c>
+      <c r="F4">
+        <v>-0.08366777085423839</v>
+      </c>
+      <c r="G4">
+        <v>-0.005254183055322136</v>
+      </c>
+      <c r="H4">
+        <v>0.04445091925634944</v>
+      </c>
+      <c r="I4">
+        <v>-0.01098177617180449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0257605803945194</v>
+        <v>0.0267209940719463</v>
       </c>
       <c r="C6">
-        <v>0.01402468202575866</v>
+        <v>0.02914641985773469</v>
       </c>
       <c r="D6">
-        <v>0.1486804244331007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1292734997376573</v>
+      </c>
+      <c r="E6">
+        <v>-0.03451192745792346</v>
+      </c>
+      <c r="F6">
+        <v>-0.05256846983481911</v>
+      </c>
+      <c r="G6">
+        <v>0.04300743269365696</v>
+      </c>
+      <c r="H6">
+        <v>0.02537225091103987</v>
+      </c>
+      <c r="I6">
+        <v>0.02263300016752188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008168474474330932</v>
+        <v>0.006397767736440589</v>
       </c>
       <c r="C7">
-        <v>0.02548536903621057</v>
+        <v>0.03363746355557167</v>
       </c>
       <c r="D7">
-        <v>0.1190985765222948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09974719428081158</v>
+      </c>
+      <c r="E7">
+        <v>-0.04195421631613328</v>
+      </c>
+      <c r="F7">
+        <v>-0.01218879099566915</v>
+      </c>
+      <c r="G7">
+        <v>0.0371077512765284</v>
+      </c>
+      <c r="H7">
+        <v>0.05990215948022305</v>
+      </c>
+      <c r="I7">
+        <v>0.04703182876171302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003253522193093986</v>
+        <v>-0.003697666773933145</v>
       </c>
       <c r="C8">
-        <v>0.03176418069349473</v>
+        <v>0.0384094922107965</v>
       </c>
       <c r="D8">
-        <v>0.08342746513898115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08203931513359244</v>
+      </c>
+      <c r="E8">
+        <v>-0.01069782213439268</v>
+      </c>
+      <c r="F8">
+        <v>-0.04961403212502612</v>
+      </c>
+      <c r="G8">
+        <v>0.09335581411121392</v>
+      </c>
+      <c r="H8">
+        <v>-0.01101206380965198</v>
+      </c>
+      <c r="I8">
+        <v>0.03486704099374136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03026050711018179</v>
+        <v>0.02010160458406547</v>
       </c>
       <c r="C9">
-        <v>0.06500779532938936</v>
+        <v>0.07893713098144096</v>
       </c>
       <c r="D9">
-        <v>0.1320124689097907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1273509168342762</v>
+      </c>
+      <c r="E9">
+        <v>0.01062058693154701</v>
+      </c>
+      <c r="F9">
+        <v>-0.04915505178154411</v>
+      </c>
+      <c r="G9">
+        <v>-0.004454879397464868</v>
+      </c>
+      <c r="H9">
+        <v>0.04890840253317039</v>
+      </c>
+      <c r="I9">
+        <v>-0.0009893006737646298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1556527262360692</v>
+        <v>0.2107640342439069</v>
       </c>
       <c r="C10">
-        <v>-0.1666257178805188</v>
+        <v>-0.125390625591442</v>
       </c>
       <c r="D10">
-        <v>0.02114507444541341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01013513368009305</v>
+      </c>
+      <c r="E10">
+        <v>0.0297496017997516</v>
+      </c>
+      <c r="F10">
+        <v>-0.05057811229683636</v>
+      </c>
+      <c r="G10">
+        <v>-0.005762700831750253</v>
+      </c>
+      <c r="H10">
+        <v>-0.05923161770180271</v>
+      </c>
+      <c r="I10">
+        <v>0.1193191790237932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02259292797767397</v>
+        <v>0.01396794561363158</v>
       </c>
       <c r="C11">
-        <v>0.04406187101312591</v>
+        <v>0.05276425516118412</v>
       </c>
       <c r="D11">
-        <v>0.05585542610097695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04937135211911146</v>
+      </c>
+      <c r="E11">
+        <v>-0.01932595764875989</v>
+      </c>
+      <c r="F11">
+        <v>0.01316550411123038</v>
+      </c>
+      <c r="G11">
+        <v>0.01123745766038352</v>
+      </c>
+      <c r="H11">
+        <v>0.04444008213053863</v>
+      </c>
+      <c r="I11">
+        <v>-0.005712318148996002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02393183879595344</v>
+        <v>0.01474240417017682</v>
       </c>
       <c r="C12">
-        <v>0.04233864846625591</v>
+        <v>0.04887887290794887</v>
       </c>
       <c r="D12">
-        <v>0.06867057890562078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05214539725306106</v>
+      </c>
+      <c r="E12">
+        <v>-0.01580622582135502</v>
+      </c>
+      <c r="F12">
+        <v>0.01501406968854605</v>
+      </c>
+      <c r="G12">
+        <v>0.008060479089711007</v>
+      </c>
+      <c r="H12">
+        <v>0.07290406334975251</v>
+      </c>
+      <c r="I12">
+        <v>0.003632170584754599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0007951279246656024</v>
+        <v>0.00369190564277663</v>
       </c>
       <c r="C13">
-        <v>0.02828535472013083</v>
+        <v>0.04172151915584677</v>
       </c>
       <c r="D13">
-        <v>0.152499686476229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1578473343267945</v>
+      </c>
+      <c r="E13">
+        <v>-0.03877009549415612</v>
+      </c>
+      <c r="F13">
+        <v>-0.04319493095156075</v>
+      </c>
+      <c r="G13">
+        <v>0.05777737892217356</v>
+      </c>
+      <c r="H13">
+        <v>0.05384902700811138</v>
+      </c>
+      <c r="I13">
+        <v>0.0596189066674129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002794055899016829</v>
+        <v>0.0002873556156925071</v>
       </c>
       <c r="C14">
-        <v>0.02286739449867933</v>
+        <v>0.02776787328555098</v>
       </c>
       <c r="D14">
-        <v>0.1082658780257805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1055349593104081</v>
+      </c>
+      <c r="E14">
+        <v>-0.01866055599082823</v>
+      </c>
+      <c r="F14">
+        <v>-0.01919063950425938</v>
+      </c>
+      <c r="G14">
+        <v>0.06479401418193895</v>
+      </c>
+      <c r="H14">
+        <v>0.09891674722025855</v>
+      </c>
+      <c r="I14">
+        <v>0.009408847404958249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002857304132241873</v>
+        <v>0.0001138958310030211</v>
       </c>
       <c r="C15">
-        <v>0.01136242211521218</v>
+        <v>0.01654995142572598</v>
       </c>
       <c r="D15">
-        <v>0.02392248805402972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0486518984836886</v>
+      </c>
+      <c r="E15">
+        <v>-0.004364870893378807</v>
+      </c>
+      <c r="F15">
+        <v>-0.002439607526666595</v>
+      </c>
+      <c r="G15">
+        <v>0.02247530519899143</v>
+      </c>
+      <c r="H15">
+        <v>0.011521155562421</v>
+      </c>
+      <c r="I15">
+        <v>-0.02099563317677013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02052326841665736</v>
+        <v>0.01387268115187863</v>
       </c>
       <c r="C16">
-        <v>0.04004886015731198</v>
+        <v>0.0470857865810645</v>
       </c>
       <c r="D16">
-        <v>0.06396792075770248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05063366269720941</v>
+      </c>
+      <c r="E16">
+        <v>-0.01960709732399429</v>
+      </c>
+      <c r="F16">
+        <v>0.006745225924210743</v>
+      </c>
+      <c r="G16">
+        <v>0.00417770381352896</v>
+      </c>
+      <c r="H16">
+        <v>0.05215081199763019</v>
+      </c>
+      <c r="I16">
+        <v>-0.004129664829730943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0006544681339558666</v>
+        <v>-0.001828005385010893</v>
       </c>
       <c r="C19">
-        <v>0.02357812567852964</v>
+        <v>0.01928531869564509</v>
       </c>
       <c r="D19">
-        <v>0.1397648467544425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09419587163028836</v>
+      </c>
+      <c r="E19">
+        <v>0.02296654472825535</v>
+      </c>
+      <c r="F19">
+        <v>-0.009752346986780252</v>
+      </c>
+      <c r="G19">
+        <v>0.0370977296375272</v>
+      </c>
+      <c r="H19">
+        <v>0.06449715108315392</v>
+      </c>
+      <c r="I19">
+        <v>0.03287193975529513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002542466723474353</v>
+        <v>0.00370234134119232</v>
       </c>
       <c r="C20">
-        <v>0.03210468320595973</v>
+        <v>0.0390834156228516</v>
       </c>
       <c r="D20">
-        <v>0.09464901875468168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1032445341844361</v>
+      </c>
+      <c r="E20">
+        <v>0.0032221250598093</v>
+      </c>
+      <c r="F20">
+        <v>-0.03191487750049936</v>
+      </c>
+      <c r="G20">
+        <v>0.03983367230874049</v>
+      </c>
+      <c r="H20">
+        <v>0.05782249766863731</v>
+      </c>
+      <c r="I20">
+        <v>0.02411965324124631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.002327904835412787</v>
+        <v>-0.0003880958294499974</v>
       </c>
       <c r="C21">
-        <v>0.03553492481153543</v>
+        <v>0.04230568656943698</v>
       </c>
       <c r="D21">
-        <v>0.1725546248637092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1472403052193113</v>
+      </c>
+      <c r="E21">
+        <v>0.01804752783253634</v>
+      </c>
+      <c r="F21">
+        <v>-0.06322347922427654</v>
+      </c>
+      <c r="G21">
+        <v>0.07498364256372929</v>
+      </c>
+      <c r="H21">
+        <v>0.1447218504431949</v>
+      </c>
+      <c r="I21">
+        <v>0.0721031232948658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002352514945197644</v>
+        <v>-0.002893779325544953</v>
       </c>
       <c r="C22">
-        <v>0.05594480268485193</v>
+        <v>0.06847402550027396</v>
       </c>
       <c r="D22">
-        <v>0.1918040277222003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2380913343800131</v>
+      </c>
+      <c r="E22">
+        <v>-0.04690445007897321</v>
+      </c>
+      <c r="F22">
+        <v>-0.0287682772480626</v>
+      </c>
+      <c r="G22">
+        <v>0.1538425277712337</v>
+      </c>
+      <c r="H22">
+        <v>-0.472682034135302</v>
+      </c>
+      <c r="I22">
+        <v>-0.2108831315554199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002161599259611863</v>
+        <v>-0.002461841080718224</v>
       </c>
       <c r="C23">
-        <v>0.0563729245948953</v>
+        <v>0.06937058298317851</v>
       </c>
       <c r="D23">
-        <v>0.1913516431847505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2388284846129038</v>
+      </c>
+      <c r="E23">
+        <v>-0.04404512119048352</v>
+      </c>
+      <c r="F23">
+        <v>-0.02772663047675824</v>
+      </c>
+      <c r="G23">
+        <v>0.1524055274995213</v>
+      </c>
+      <c r="H23">
+        <v>-0.4726916215825835</v>
+      </c>
+      <c r="I23">
+        <v>-0.2124406553546762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0273285935767402</v>
+        <v>0.01561568809760138</v>
       </c>
       <c r="C24">
-        <v>0.05830063272708056</v>
+        <v>0.06390244320722721</v>
       </c>
       <c r="D24">
-        <v>0.07462423179683531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05940932030672984</v>
+      </c>
+      <c r="E24">
+        <v>-0.02056509664192666</v>
+      </c>
+      <c r="F24">
+        <v>0.004681887335290263</v>
+      </c>
+      <c r="G24">
+        <v>0.01780613190766643</v>
+      </c>
+      <c r="H24">
+        <v>0.07595905307142135</v>
+      </c>
+      <c r="I24">
+        <v>-0.005046111605779382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0305937095080702</v>
+        <v>0.01930228643993023</v>
       </c>
       <c r="C25">
-        <v>0.05010102695976835</v>
+        <v>0.05972642254239187</v>
       </c>
       <c r="D25">
-        <v>0.06972264167991436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0584232714092126</v>
+      </c>
+      <c r="E25">
+        <v>-0.008594070416090093</v>
+      </c>
+      <c r="F25">
+        <v>0.008140916715049368</v>
+      </c>
+      <c r="G25">
+        <v>0.005136536716370443</v>
+      </c>
+      <c r="H25">
+        <v>0.04693890093791649</v>
+      </c>
+      <c r="I25">
+        <v>-0.0004504058118376119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.004070529960653918</v>
+        <v>0.005213580095081814</v>
       </c>
       <c r="C26">
-        <v>0.01661675390045505</v>
+        <v>0.02356360188620467</v>
       </c>
       <c r="D26">
-        <v>0.07787119736906734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0733047283959127</v>
+      </c>
+      <c r="E26">
+        <v>-0.01866879520948142</v>
+      </c>
+      <c r="F26">
+        <v>-0.02474907309979649</v>
+      </c>
+      <c r="G26">
+        <v>0.03684363305160893</v>
+      </c>
+      <c r="H26">
+        <v>0.06645397992555081</v>
+      </c>
+      <c r="I26">
+        <v>0.03915838212443754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2385626288000354</v>
+        <v>0.3061094239561063</v>
       </c>
       <c r="C28">
-        <v>-0.2117412078823004</v>
+        <v>-0.1454830427611348</v>
       </c>
       <c r="D28">
-        <v>0.01990595942499115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.004017027397870522</v>
+      </c>
+      <c r="E28">
+        <v>0.04905723077408183</v>
+      </c>
+      <c r="F28">
+        <v>-0.03630759221502889</v>
+      </c>
+      <c r="G28">
+        <v>-0.02530137317988279</v>
+      </c>
+      <c r="H28">
+        <v>-0.02562302845813359</v>
+      </c>
+      <c r="I28">
+        <v>0.08383892000019295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002472106302031688</v>
+        <v>0.0004080533127399981</v>
       </c>
       <c r="C29">
-        <v>0.02107188217840767</v>
+        <v>0.02738119731164022</v>
       </c>
       <c r="D29">
-        <v>0.1007154870975668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1019285938960692</v>
+      </c>
+      <c r="E29">
+        <v>-0.0319404592965871</v>
+      </c>
+      <c r="F29">
+        <v>-0.02971351867082192</v>
+      </c>
+      <c r="G29">
+        <v>0.05200794178451826</v>
+      </c>
+      <c r="H29">
+        <v>0.09692884227724334</v>
+      </c>
+      <c r="I29">
+        <v>0.01829323603519515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01734566649281142</v>
+        <v>0.01710604865596251</v>
       </c>
       <c r="C30">
-        <v>0.0600520542493065</v>
+        <v>0.07694233442423629</v>
       </c>
       <c r="D30">
-        <v>0.1687343151219959</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1703751801237795</v>
+      </c>
+      <c r="E30">
+        <v>-0.03674971037371177</v>
+      </c>
+      <c r="F30">
+        <v>-0.03671548773047863</v>
+      </c>
+      <c r="G30">
+        <v>0.0363026060199561</v>
+      </c>
+      <c r="H30">
+        <v>0.03696251784660252</v>
+      </c>
+      <c r="I30">
+        <v>-0.04605583454911794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04019858121910794</v>
+        <v>0.01785111375927951</v>
       </c>
       <c r="C31">
-        <v>0.0836928979950811</v>
+        <v>0.08771090985699774</v>
       </c>
       <c r="D31">
-        <v>0.08001739818915823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04707971947877359</v>
+      </c>
+      <c r="E31">
+        <v>-0.006512465017525049</v>
+      </c>
+      <c r="F31">
+        <v>-0.01964094961072543</v>
+      </c>
+      <c r="G31">
+        <v>0.02666545979329846</v>
+      </c>
+      <c r="H31">
+        <v>0.03970565484261526</v>
+      </c>
+      <c r="I31">
+        <v>0.05409533263220515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02185844132136267</v>
+        <v>0.01739107413705099</v>
       </c>
       <c r="C32">
-        <v>0.03112891611349261</v>
+        <v>0.03739789408059075</v>
       </c>
       <c r="D32">
-        <v>0.1106336185122482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1161158616239927</v>
+      </c>
+      <c r="E32">
+        <v>-0.001198511882699495</v>
+      </c>
+      <c r="F32">
+        <v>-0.04417735493251076</v>
+      </c>
+      <c r="G32">
+        <v>0.02626609707028244</v>
+      </c>
+      <c r="H32">
+        <v>0.01622834866021318</v>
+      </c>
+      <c r="I32">
+        <v>0.07502281228382372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01390013880744977</v>
+        <v>0.01134574206783894</v>
       </c>
       <c r="C33">
-        <v>0.04185106839297365</v>
+        <v>0.05311696510829487</v>
       </c>
       <c r="D33">
-        <v>0.1527374101662673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1336996555669189</v>
+      </c>
+      <c r="E33">
+        <v>-0.01263877895900459</v>
+      </c>
+      <c r="F33">
+        <v>-0.02391122574807264</v>
+      </c>
+      <c r="G33">
+        <v>0.02865032031490799</v>
+      </c>
+      <c r="H33">
+        <v>0.05662101237789519</v>
+      </c>
+      <c r="I33">
+        <v>0.008378856749729774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02662709217740967</v>
+        <v>0.01349690231017607</v>
       </c>
       <c r="C34">
-        <v>0.05911493484910003</v>
+        <v>0.06310456458036053</v>
       </c>
       <c r="D34">
-        <v>0.05516483827271293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03720952401505418</v>
+      </c>
+      <c r="E34">
+        <v>-0.02941246532533587</v>
+      </c>
+      <c r="F34">
+        <v>0.03581005911857923</v>
+      </c>
+      <c r="G34">
+        <v>0.01438840730906434</v>
+      </c>
+      <c r="H34">
+        <v>0.05748433102917819</v>
+      </c>
+      <c r="I34">
+        <v>0.009558840167068284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001494124048564584</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003646793678638698</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01443195440982246</v>
+      </c>
+      <c r="E35">
+        <v>-0.001723741117248117</v>
+      </c>
+      <c r="F35">
+        <v>0.001356678038376594</v>
+      </c>
+      <c r="G35">
+        <v>0.0008329533332205832</v>
+      </c>
+      <c r="H35">
+        <v>0.007003680559404438</v>
+      </c>
+      <c r="I35">
+        <v>-0.003472810802103975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01014342073117884</v>
+        <v>0.01207500694618608</v>
       </c>
       <c r="C36">
-        <v>0.004999563766560435</v>
+        <v>0.01738085991992494</v>
       </c>
       <c r="D36">
-        <v>0.09909578265588616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0881426136642728</v>
+      </c>
+      <c r="E36">
+        <v>-0.005631412841115534</v>
+      </c>
+      <c r="F36">
+        <v>-0.03224551611196195</v>
+      </c>
+      <c r="G36">
+        <v>0.02224288639655946</v>
+      </c>
+      <c r="H36">
+        <v>0.05716302081519093</v>
+      </c>
+      <c r="I36">
+        <v>0.01787275126456337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009481592758903689</v>
+        <v>0.01746575057255917</v>
       </c>
       <c r="C38">
-        <v>0.01083566221061677</v>
+        <v>0.01685025587642583</v>
       </c>
       <c r="D38">
-        <v>0.08735569081445443</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08664262464715292</v>
+      </c>
+      <c r="E38">
+        <v>0.01237817220937192</v>
+      </c>
+      <c r="F38">
+        <v>0.01289516206262633</v>
+      </c>
+      <c r="G38">
+        <v>0.0372931224575339</v>
+      </c>
+      <c r="H38">
+        <v>0.04324121502964542</v>
+      </c>
+      <c r="I38">
+        <v>0.01022934238290289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02442037468697799</v>
+        <v>0.01432412782715558</v>
       </c>
       <c r="C39">
-        <v>0.05583725799748786</v>
+        <v>0.07299514750018246</v>
       </c>
       <c r="D39">
-        <v>0.1055066994091095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1024726368765591</v>
+      </c>
+      <c r="E39">
+        <v>-0.04489322360379196</v>
+      </c>
+      <c r="F39">
+        <v>0.01138763925947669</v>
+      </c>
+      <c r="G39">
+        <v>0.02103555070345264</v>
+      </c>
+      <c r="H39">
+        <v>0.09367220392343782</v>
+      </c>
+      <c r="I39">
+        <v>-0.05026871209722896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01143614489281229</v>
+        <v>0.007162805008569289</v>
       </c>
       <c r="C40">
-        <v>0.04075590376433322</v>
+        <v>0.03968874446063252</v>
       </c>
       <c r="D40">
-        <v>0.1166448018288622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1012256383450214</v>
+      </c>
+      <c r="E40">
+        <v>-0.01588416645499788</v>
+      </c>
+      <c r="F40">
+        <v>-0.02544470656587433</v>
+      </c>
+      <c r="G40">
+        <v>0.2462790725145339</v>
+      </c>
+      <c r="H40">
+        <v>0.01687313882837608</v>
+      </c>
+      <c r="I40">
+        <v>0.1339869620829031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01789153604343207</v>
+        <v>0.01694496095675525</v>
       </c>
       <c r="C41">
-        <v>0.002812900065375625</v>
+        <v>0.01233869517947019</v>
       </c>
       <c r="D41">
-        <v>0.07572628736723286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05236240019318444</v>
+      </c>
+      <c r="E41">
+        <v>0.01912887008462225</v>
+      </c>
+      <c r="F41">
+        <v>-0.01661029163918108</v>
+      </c>
+      <c r="G41">
+        <v>0.03021568172743143</v>
+      </c>
+      <c r="H41">
+        <v>0.02617182558873027</v>
+      </c>
+      <c r="I41">
+        <v>0.04473214063869877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01210114276710263</v>
+        <v>0.01031898790754463</v>
       </c>
       <c r="C43">
-        <v>0.008138780533136832</v>
+        <v>0.01537219451141148</v>
       </c>
       <c r="D43">
-        <v>0.09027063797362769</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.064888275605242</v>
+      </c>
+      <c r="E43">
+        <v>0.005721097899112451</v>
+      </c>
+      <c r="F43">
+        <v>-0.01171674698228348</v>
+      </c>
+      <c r="G43">
+        <v>0.03490828639155227</v>
+      </c>
+      <c r="H43">
+        <v>0.0563385229518323</v>
+      </c>
+      <c r="I43">
+        <v>0.03979747553824383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.001149887022147464</v>
+        <v>0.004505281050489815</v>
       </c>
       <c r="C44">
-        <v>0.03905273653976075</v>
+        <v>0.04273757665794317</v>
       </c>
       <c r="D44">
-        <v>0.09905165043110951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.113472305957434</v>
+      </c>
+      <c r="E44">
+        <v>0.0006321024260366185</v>
+      </c>
+      <c r="F44">
+        <v>-0.0263614910483699</v>
+      </c>
+      <c r="G44">
+        <v>0.04132402226334023</v>
+      </c>
+      <c r="H44">
+        <v>0.043777840460375</v>
+      </c>
+      <c r="I44">
+        <v>-0.03127937286717521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007790441070286216</v>
+        <v>0.002191528064997738</v>
       </c>
       <c r="C46">
-        <v>0.02815763839475622</v>
+        <v>0.03538026355655497</v>
       </c>
       <c r="D46">
-        <v>0.1071930726856545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09058973580445839</v>
+      </c>
+      <c r="E46">
+        <v>-0.01598106327986542</v>
+      </c>
+      <c r="F46">
+        <v>-0.02386577838352318</v>
+      </c>
+      <c r="G46">
+        <v>0.05134487594834551</v>
+      </c>
+      <c r="H46">
+        <v>0.1096348163736855</v>
+      </c>
+      <c r="I46">
+        <v>0.03254896726582612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07922183824695307</v>
+        <v>0.04596124922975618</v>
       </c>
       <c r="C47">
-        <v>0.1061334798166726</v>
+        <v>0.1184890118428152</v>
       </c>
       <c r="D47">
-        <v>0.06147398903629245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02759823681745622</v>
+      </c>
+      <c r="E47">
+        <v>0.01026506983412041</v>
+      </c>
+      <c r="F47">
+        <v>0.003392224926508995</v>
+      </c>
+      <c r="G47">
+        <v>-0.01822943390988589</v>
+      </c>
+      <c r="H47">
+        <v>0.04016933929503829</v>
+      </c>
+      <c r="I47">
+        <v>0.1164582521149986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004690241789071892</v>
+        <v>0.005639802725957552</v>
       </c>
       <c r="C48">
-        <v>0.01757692224221947</v>
+        <v>0.02617227651687263</v>
       </c>
       <c r="D48">
-        <v>0.09398412542868148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08871368395713428</v>
+      </c>
+      <c r="E48">
+        <v>0.01114421304475441</v>
+      </c>
+      <c r="F48">
+        <v>-0.03557442693176662</v>
+      </c>
+      <c r="G48">
+        <v>0.04037315901498262</v>
+      </c>
+      <c r="H48">
+        <v>0.07245096509021039</v>
+      </c>
+      <c r="I48">
+        <v>0.01620445173760459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03870779888877724</v>
+        <v>0.02022084267063095</v>
       </c>
       <c r="C50">
-        <v>0.0627878520973592</v>
+        <v>0.07189884963197843</v>
       </c>
       <c r="D50">
-        <v>0.07882855909614979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05555752927070926</v>
+      </c>
+      <c r="E50">
+        <v>-0.0003680713427517414</v>
+      </c>
+      <c r="F50">
+        <v>-0.008302161737399881</v>
+      </c>
+      <c r="G50">
+        <v>0.03825051098242591</v>
+      </c>
+      <c r="H50">
+        <v>0.02023158541597922</v>
+      </c>
+      <c r="I50">
+        <v>0.09093229644656153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001733181767059016</v>
+        <v>0.002630862975778068</v>
       </c>
       <c r="C51">
-        <v>0.01019609293820813</v>
+        <v>0.01826667395641571</v>
       </c>
       <c r="D51">
-        <v>0.06842913800558426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07449442331121867</v>
+      </c>
+      <c r="E51">
+        <v>-0.02823755861120727</v>
+      </c>
+      <c r="F51">
+        <v>-0.03685002520486397</v>
+      </c>
+      <c r="G51">
+        <v>0.04987888505478501</v>
+      </c>
+      <c r="H51">
+        <v>0.04431719818203942</v>
+      </c>
+      <c r="I51">
+        <v>0.009062202925081073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09934829280828393</v>
+        <v>0.06752977389812653</v>
       </c>
       <c r="C53">
-        <v>0.1235626285815022</v>
+        <v>0.1481690279231538</v>
       </c>
       <c r="D53">
-        <v>0.02089624750245759</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003147201124191853</v>
+      </c>
+      <c r="E53">
+        <v>0.0461142015433523</v>
+      </c>
+      <c r="F53">
+        <v>-0.0652054414281381</v>
+      </c>
+      <c r="G53">
+        <v>0.03312827556985377</v>
+      </c>
+      <c r="H53">
+        <v>0.002156405831055476</v>
+      </c>
+      <c r="I53">
+        <v>0.09653653563041921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01223514937272467</v>
+        <v>0.00957596287908288</v>
       </c>
       <c r="C54">
-        <v>0.02221766148346694</v>
+        <v>0.03401679924442733</v>
       </c>
       <c r="D54">
-        <v>0.1156946318130035</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09460860573483652</v>
+      </c>
+      <c r="E54">
+        <v>-0.007950335294783385</v>
+      </c>
+      <c r="F54">
+        <v>-0.002807211129638255</v>
+      </c>
+      <c r="G54">
+        <v>0.0607196956978974</v>
+      </c>
+      <c r="H54">
+        <v>0.06677333291258117</v>
+      </c>
+      <c r="I54">
+        <v>0.05913429746331279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09110708254772197</v>
+        <v>0.05673350284202107</v>
       </c>
       <c r="C55">
-        <v>0.1029075929348292</v>
+        <v>0.1231191401324449</v>
       </c>
       <c r="D55">
-        <v>0.006151501201308205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01386572378526833</v>
+      </c>
+      <c r="E55">
+        <v>0.007368556933812874</v>
+      </c>
+      <c r="F55">
+        <v>-0.03020982008478632</v>
+      </c>
+      <c r="G55">
+        <v>0.04213810595322032</v>
+      </c>
+      <c r="H55">
+        <v>-0.01107482878612208</v>
+      </c>
+      <c r="I55">
+        <v>0.07779248130029671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1254810075987549</v>
+        <v>0.07990132270761539</v>
       </c>
       <c r="C56">
-        <v>0.1307367318396261</v>
+        <v>0.1701835202479143</v>
       </c>
       <c r="D56">
-        <v>0.001953751619087807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01478618825985983</v>
+      </c>
+      <c r="E56">
+        <v>0.03863153931286872</v>
+      </c>
+      <c r="F56">
+        <v>-0.02777808603425839</v>
+      </c>
+      <c r="G56">
+        <v>0.04984646053026962</v>
+      </c>
+      <c r="H56">
+        <v>-0.02906087732550073</v>
+      </c>
+      <c r="I56">
+        <v>0.08901052687358001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02425457269901234</v>
+        <v>-0.007564842154802286</v>
       </c>
       <c r="C58">
-        <v>0.02050083056108707</v>
+        <v>0.04064484202617773</v>
       </c>
       <c r="D58">
-        <v>0.2133718791840942</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2860116800409339</v>
+      </c>
+      <c r="E58">
+        <v>0.03860606986602606</v>
+      </c>
+      <c r="F58">
+        <v>-0.09200909648722477</v>
+      </c>
+      <c r="G58">
+        <v>0.06987287001295196</v>
+      </c>
+      <c r="H58">
+        <v>-0.1528642893349091</v>
+      </c>
+      <c r="I58">
+        <v>-0.04922794536438886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1700386002901124</v>
+        <v>0.2285612421135263</v>
       </c>
       <c r="C59">
-        <v>-0.1492483637752076</v>
+        <v>-0.09847908719245659</v>
       </c>
       <c r="D59">
-        <v>0.05104613955331361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06517601788702748</v>
+      </c>
+      <c r="E59">
+        <v>0.03533080056518337</v>
+      </c>
+      <c r="F59">
+        <v>-0.006553792920449122</v>
+      </c>
+      <c r="G59">
+        <v>-0.005214690006949159</v>
+      </c>
+      <c r="H59">
+        <v>-0.01624800569009332</v>
+      </c>
+      <c r="I59">
+        <v>0.002448856013320323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.205526346791865</v>
+        <v>0.1677805545774325</v>
       </c>
       <c r="C60">
-        <v>0.1071436550518142</v>
+        <v>0.1658592307703907</v>
       </c>
       <c r="D60">
-        <v>0.1595886980415532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07903247078048732</v>
+      </c>
+      <c r="E60">
+        <v>-0.2647043770379135</v>
+      </c>
+      <c r="F60">
+        <v>0.158847228451803</v>
+      </c>
+      <c r="G60">
+        <v>-0.2490331080136895</v>
+      </c>
+      <c r="H60">
+        <v>-0.1092567540632542</v>
+      </c>
+      <c r="I60">
+        <v>-0.03892620107050103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03191055847288375</v>
+        <v>0.01925920828049112</v>
       </c>
       <c r="C61">
-        <v>0.05824994818994287</v>
+        <v>0.07087146397095016</v>
       </c>
       <c r="D61">
-        <v>0.1172077144482896</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09116480501906371</v>
+      </c>
+      <c r="E61">
+        <v>-0.03496308976581324</v>
+      </c>
+      <c r="F61">
+        <v>0.01582270163841004</v>
+      </c>
+      <c r="G61">
+        <v>0.007943878360726988</v>
+      </c>
+      <c r="H61">
+        <v>0.09724682483553158</v>
+      </c>
+      <c r="I61">
+        <v>0.01830749043728831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009076250780941651</v>
+        <v>0.005000553732430693</v>
       </c>
       <c r="C63">
-        <v>0.02525567292924225</v>
+        <v>0.03496746773495847</v>
       </c>
       <c r="D63">
-        <v>0.0953098022091011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0751761838217858</v>
+      </c>
+      <c r="E63">
+        <v>-0.02008776708598269</v>
+      </c>
+      <c r="F63">
+        <v>-0.02060671477711412</v>
+      </c>
+      <c r="G63">
+        <v>0.03167934606715463</v>
+      </c>
+      <c r="H63">
+        <v>0.05317700724224181</v>
+      </c>
+      <c r="I63">
+        <v>0.009448676831333106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05207235267470304</v>
+        <v>0.02759758275048712</v>
       </c>
       <c r="C64">
-        <v>0.08446177813505004</v>
+        <v>0.09727053826146768</v>
       </c>
       <c r="D64">
-        <v>0.0651925226031415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05164630393805685</v>
+      </c>
+      <c r="E64">
+        <v>-0.0234029751197418</v>
+      </c>
+      <c r="F64">
+        <v>-0.03486031813979412</v>
+      </c>
+      <c r="G64">
+        <v>-0.01719008764090595</v>
+      </c>
+      <c r="H64">
+        <v>0.1230037160396102</v>
+      </c>
+      <c r="I64">
+        <v>0.006946698672117788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02375873934925703</v>
+        <v>0.01923596772661412</v>
       </c>
       <c r="C65">
-        <v>0.0182644990659469</v>
+        <v>0.03653859839434395</v>
       </c>
       <c r="D65">
-        <v>0.1194951375212194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1072600649178631</v>
+      </c>
+      <c r="E65">
+        <v>-0.03986282858887346</v>
+      </c>
+      <c r="F65">
+        <v>-0.009474369867484018</v>
+      </c>
+      <c r="G65">
+        <v>0.01009838642362378</v>
+      </c>
+      <c r="H65">
+        <v>0.01437427339248042</v>
+      </c>
+      <c r="I65">
+        <v>0.011245386584656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02542341328282774</v>
+        <v>0.01396368555641019</v>
       </c>
       <c r="C66">
-        <v>0.06443317528463118</v>
+        <v>0.08561971945083756</v>
       </c>
       <c r="D66">
-        <v>0.1201318416586441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1314143427778003</v>
+      </c>
+      <c r="E66">
+        <v>-0.03748185538336229</v>
+      </c>
+      <c r="F66">
+        <v>0.01902838851364677</v>
+      </c>
+      <c r="G66">
+        <v>0.0135312094539326</v>
+      </c>
+      <c r="H66">
+        <v>0.05575135278701535</v>
+      </c>
+      <c r="I66">
+        <v>-0.05343175522628772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0305463232868962</v>
+        <v>0.03004737218725165</v>
       </c>
       <c r="C67">
-        <v>0.0225090020242524</v>
+        <v>0.03004656878573311</v>
       </c>
       <c r="D67">
-        <v>0.04090268188691026</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03444844181436248</v>
+      </c>
+      <c r="E67">
+        <v>-0.002901538181322065</v>
+      </c>
+      <c r="F67">
+        <v>0.03169342917557684</v>
+      </c>
+      <c r="G67">
+        <v>0.03077993960303158</v>
+      </c>
+      <c r="H67">
+        <v>0.05476930715644027</v>
+      </c>
+      <c r="I67">
+        <v>0.00281916930676774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2103888444191891</v>
+        <v>0.2601228893771971</v>
       </c>
       <c r="C68">
-        <v>-0.1654298817855878</v>
+        <v>-0.1014752356502312</v>
       </c>
       <c r="D68">
-        <v>0.03264830731458292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03393187190061682</v>
+      </c>
+      <c r="E68">
+        <v>0.003430947807127681</v>
+      </c>
+      <c r="F68">
+        <v>-0.02653196345253137</v>
+      </c>
+      <c r="G68">
+        <v>0.04518043276905231</v>
+      </c>
+      <c r="H68">
+        <v>-0.04755914436554748</v>
+      </c>
+      <c r="I68">
+        <v>0.06832839659796666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06424772892744701</v>
+        <v>0.03580208111969622</v>
       </c>
       <c r="C69">
-        <v>0.1128007085739525</v>
+        <v>0.1180726111086761</v>
       </c>
       <c r="D69">
-        <v>0.08436671059547747</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04389517709686335</v>
+      </c>
+      <c r="E69">
+        <v>-0.007507940471804577</v>
+      </c>
+      <c r="F69">
+        <v>0.008453387518577915</v>
+      </c>
+      <c r="G69">
+        <v>-0.008297953808389208</v>
+      </c>
+      <c r="H69">
+        <v>0.0403336817434051</v>
+      </c>
+      <c r="I69">
+        <v>0.07314173586155392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2079780185457351</v>
+        <v>0.2568359067990947</v>
       </c>
       <c r="C71">
-        <v>-0.1796934995591705</v>
+        <v>-0.1162641551204772</v>
       </c>
       <c r="D71">
-        <v>0.04274010555350417</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03445718942349646</v>
+      </c>
+      <c r="E71">
+        <v>0.01225067569486664</v>
+      </c>
+      <c r="F71">
+        <v>-0.0287983135469461</v>
+      </c>
+      <c r="G71">
+        <v>0.05468379609477562</v>
+      </c>
+      <c r="H71">
+        <v>-0.007834457024664652</v>
+      </c>
+      <c r="I71">
+        <v>0.161165200089238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1055179649155699</v>
+        <v>0.0705242270136348</v>
       </c>
       <c r="C72">
-        <v>0.07491566591016917</v>
+        <v>0.1171315519964459</v>
       </c>
       <c r="D72">
-        <v>0.09506558999074596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06982367984762701</v>
+      </c>
+      <c r="E72">
+        <v>-0.08980143314823123</v>
+      </c>
+      <c r="F72">
+        <v>0.004773922707098047</v>
+      </c>
+      <c r="G72">
+        <v>0.01298959718130224</v>
+      </c>
+      <c r="H72">
+        <v>0.05739904305077299</v>
+      </c>
+      <c r="I72">
+        <v>-0.009264166037288794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1879759543266206</v>
+        <v>0.15188572043272</v>
       </c>
       <c r="C73">
-        <v>0.05420415867171097</v>
+        <v>0.1244142279823811</v>
       </c>
       <c r="D73">
-        <v>0.2027238738029281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06615720639183194</v>
+      </c>
+      <c r="E73">
+        <v>-0.4502500651120397</v>
+      </c>
+      <c r="F73">
+        <v>0.2335002898779405</v>
+      </c>
+      <c r="G73">
+        <v>-0.4182987801528006</v>
+      </c>
+      <c r="H73">
+        <v>-0.01522387464390186</v>
+      </c>
+      <c r="I73">
+        <v>-0.04050139030712037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1002068320719079</v>
+        <v>0.06345208815747923</v>
       </c>
       <c r="C74">
-        <v>0.1090327728165333</v>
+        <v>0.1322405327710644</v>
       </c>
       <c r="D74">
-        <v>-0.0163951329079095</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02913311713981311</v>
+      </c>
+      <c r="E74">
+        <v>0.02332808467281943</v>
+      </c>
+      <c r="F74">
+        <v>-0.05723030201116391</v>
+      </c>
+      <c r="G74">
+        <v>0.003899478466473761</v>
+      </c>
+      <c r="H74">
+        <v>-0.01874447345859003</v>
+      </c>
+      <c r="I74">
+        <v>0.09412263898519081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2455268612159972</v>
+        <v>0.1636239172433984</v>
       </c>
       <c r="C75">
-        <v>0.1932925707952723</v>
+        <v>0.2538370487084792</v>
       </c>
       <c r="D75">
-        <v>-0.09968590020309641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1253026902191208</v>
+      </c>
+      <c r="E75">
+        <v>0.08062248917546853</v>
+      </c>
+      <c r="F75">
+        <v>0.03366269643034322</v>
+      </c>
+      <c r="G75">
+        <v>0.05128597436283389</v>
+      </c>
+      <c r="H75">
+        <v>-0.02183710831455369</v>
+      </c>
+      <c r="I75">
+        <v>0.08052353223975303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1387921979017102</v>
+        <v>0.08760364996683541</v>
       </c>
       <c r="C76">
-        <v>0.1399095128538003</v>
+        <v>0.1734465183151537</v>
       </c>
       <c r="D76">
-        <v>0.01720583016644119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01419893847525334</v>
+      </c>
+      <c r="E76">
+        <v>0.03845974183069776</v>
+      </c>
+      <c r="F76">
+        <v>-0.01387669067778449</v>
+      </c>
+      <c r="G76">
+        <v>0.0562129266823869</v>
+      </c>
+      <c r="H76">
+        <v>0.0107899277865044</v>
+      </c>
+      <c r="I76">
+        <v>0.09771996275880475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02490170149855971</v>
+        <v>0.03417956981080439</v>
       </c>
       <c r="C77">
-        <v>0.08388674135989711</v>
+        <v>0.09606849281844101</v>
       </c>
       <c r="D77">
-        <v>0.05867338471646258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2448810253986564</v>
+      </c>
+      <c r="E77">
+        <v>0.6901692238257442</v>
+      </c>
+      <c r="F77">
+        <v>0.4048109874475947</v>
+      </c>
+      <c r="G77">
+        <v>-0.3562344793283595</v>
+      </c>
+      <c r="H77">
+        <v>-0.2053999279460735</v>
+      </c>
+      <c r="I77">
+        <v>0.1150347703862356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02343616670260359</v>
+        <v>0.02082619408257564</v>
       </c>
       <c r="C78">
-        <v>0.07095744412669727</v>
+        <v>0.08185857747484022</v>
       </c>
       <c r="D78">
-        <v>0.1607326157881052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1438140119029382</v>
+      </c>
+      <c r="E78">
+        <v>-0.04640485274293885</v>
+      </c>
+      <c r="F78">
+        <v>-0.03704279726323781</v>
+      </c>
+      <c r="G78">
+        <v>0.01156691071550665</v>
+      </c>
+      <c r="H78">
+        <v>0.01968856828417151</v>
+      </c>
+      <c r="I78">
+        <v>-0.03383748542381486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.07055129565941899</v>
+        <v>0.04401143824958195</v>
       </c>
       <c r="C79">
-        <v>0.1443629032626909</v>
+        <v>0.1641013747669873</v>
       </c>
       <c r="D79">
-        <v>-0.0868612043073218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03881753651217584</v>
+      </c>
+      <c r="E79">
+        <v>0.1545051449640965</v>
+      </c>
+      <c r="F79">
+        <v>-0.7754574002064077</v>
+      </c>
+      <c r="G79">
+        <v>-0.4813861168372283</v>
+      </c>
+      <c r="H79">
+        <v>-0.0599764775277127</v>
+      </c>
+      <c r="I79">
+        <v>-0.1410591626570189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009764462594013487</v>
+        <v>0.004206260748364292</v>
       </c>
       <c r="C80">
-        <v>0.05340597689034005</v>
+        <v>0.05319532120578646</v>
       </c>
       <c r="D80">
-        <v>0.05129808552633417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04380039657466508</v>
+      </c>
+      <c r="E80">
+        <v>-0.01825479179008191</v>
+      </c>
+      <c r="F80">
+        <v>-0.01610114065539076</v>
+      </c>
+      <c r="G80">
+        <v>0.06384770645378257</v>
+      </c>
+      <c r="H80">
+        <v>0.007521461867812883</v>
+      </c>
+      <c r="I80">
+        <v>0.03250325343161699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1232593753934317</v>
+        <v>0.07232247509059817</v>
       </c>
       <c r="C81">
-        <v>0.139430398897178</v>
+        <v>0.1642001286202405</v>
       </c>
       <c r="D81">
-        <v>-0.06561379030608658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07388392480480524</v>
+      </c>
+      <c r="E81">
+        <v>0.07637485058700186</v>
+      </c>
+      <c r="F81">
+        <v>-0.04988758360728391</v>
+      </c>
+      <c r="G81">
+        <v>0.07459657806992349</v>
+      </c>
+      <c r="H81">
+        <v>0.04204873605459784</v>
+      </c>
+      <c r="I81">
+        <v>0.1191934769498177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2390378312631346</v>
+        <v>0.1341691166583938</v>
       </c>
       <c r="C82">
-        <v>0.29804223726627</v>
+        <v>0.3169901126881347</v>
       </c>
       <c r="D82">
-        <v>-0.214123053393542</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.217849239025263</v>
+      </c>
+      <c r="E82">
+        <v>0.04846333804221966</v>
+      </c>
+      <c r="F82">
+        <v>0.09160654034711718</v>
+      </c>
+      <c r="G82">
+        <v>0.1003870114293722</v>
+      </c>
+      <c r="H82">
+        <v>0.06040065142518215</v>
+      </c>
+      <c r="I82">
+        <v>0.09730227468217931</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.008600146581831251</v>
+        <v>-0.003957373208554508</v>
       </c>
       <c r="C83">
-        <v>0.06194987870753109</v>
+        <v>0.05137754780443818</v>
       </c>
       <c r="D83">
-        <v>0.02487453499808657</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04395557512037754</v>
+      </c>
+      <c r="E83">
+        <v>0.09720853971591091</v>
+      </c>
+      <c r="F83">
+        <v>0.02450417809545718</v>
+      </c>
+      <c r="G83">
+        <v>0.03710250211217785</v>
+      </c>
+      <c r="H83">
+        <v>0.05262933569180475</v>
+      </c>
+      <c r="I83">
+        <v>-0.1401859619614773</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.00159397945622284</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01371883522260162</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03396593331319924</v>
+      </c>
+      <c r="E84">
+        <v>0.006152815501105473</v>
+      </c>
+      <c r="F84">
+        <v>-0.01804046015481437</v>
+      </c>
+      <c r="G84">
+        <v>0.03506603748363252</v>
+      </c>
+      <c r="H84">
+        <v>-0.00856180538808244</v>
+      </c>
+      <c r="I84">
+        <v>-0.02687961360308033</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1553329607248771</v>
+        <v>0.09565042869425061</v>
       </c>
       <c r="C85">
-        <v>0.1425042151724345</v>
+        <v>0.1869091982057644</v>
       </c>
       <c r="D85">
-        <v>-0.05028409000524797</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08852603107287518</v>
+      </c>
+      <c r="E85">
+        <v>-0.0002106913884128675</v>
+      </c>
+      <c r="F85">
+        <v>-0.07107112115957266</v>
+      </c>
+      <c r="G85">
+        <v>0.01033340440881358</v>
+      </c>
+      <c r="H85">
+        <v>-0.008480828622336312</v>
+      </c>
+      <c r="I85">
+        <v>0.07397271129846754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01091394048125582</v>
+        <v>0.01099852950248299</v>
       </c>
       <c r="C86">
-        <v>0.02650899810691318</v>
+        <v>0.02988067106294029</v>
       </c>
       <c r="D86">
-        <v>0.08949190130877659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1051030947698169</v>
+      </c>
+      <c r="E86">
+        <v>0.04439089378316721</v>
+      </c>
+      <c r="F86">
+        <v>0.01760911260068708</v>
+      </c>
+      <c r="G86">
+        <v>0.01795892426154275</v>
+      </c>
+      <c r="H86">
+        <v>0.005801432020566385</v>
+      </c>
+      <c r="I86">
+        <v>0.1049868012546583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02063405819900122</v>
+        <v>0.02257263569831064</v>
       </c>
       <c r="C87">
-        <v>0.02150863288444375</v>
+        <v>0.04406692018728437</v>
       </c>
       <c r="D87">
-        <v>0.1249102400433924</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1490174903560406</v>
+      </c>
+      <c r="E87">
+        <v>0.01783942563059682</v>
+      </c>
+      <c r="F87">
+        <v>-0.035816529279848</v>
+      </c>
+      <c r="G87">
+        <v>0.05762104918659108</v>
+      </c>
+      <c r="H87">
+        <v>0.01607875194266611</v>
+      </c>
+      <c r="I87">
+        <v>-0.08803144661451613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05893473153898175</v>
+        <v>0.04023252017876695</v>
       </c>
       <c r="C88">
-        <v>0.04497522212623941</v>
+        <v>0.06253544870743354</v>
       </c>
       <c r="D88">
-        <v>0.04474064660899971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01242519883339455</v>
+      </c>
+      <c r="E88">
+        <v>-0.02039156693037177</v>
+      </c>
+      <c r="F88">
+        <v>-0.0247451810056994</v>
+      </c>
+      <c r="G88">
+        <v>-0.006783427660542975</v>
+      </c>
+      <c r="H88">
+        <v>0.02346772818671479</v>
+      </c>
+      <c r="I88">
+        <v>0.03862559791614729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3195398252039035</v>
+        <v>0.3914281641429913</v>
       </c>
       <c r="C89">
-        <v>-0.3322651859383041</v>
+        <v>-0.2152951654200549</v>
       </c>
       <c r="D89">
-        <v>0.006746926279851034</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01814963623866938</v>
+      </c>
+      <c r="E89">
+        <v>0.05387574311644115</v>
+      </c>
+      <c r="F89">
+        <v>-0.04828558020895003</v>
+      </c>
+      <c r="G89">
+        <v>0.0939997443733509</v>
+      </c>
+      <c r="H89">
+        <v>0.1535864689180371</v>
+      </c>
+      <c r="I89">
+        <v>-0.4096745115740535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2568474742861703</v>
+        <v>0.3066281797361019</v>
       </c>
       <c r="C90">
-        <v>-0.2454720271368161</v>
+        <v>-0.1492743657225444</v>
       </c>
       <c r="D90">
-        <v>0.03231844773274641</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03659603188797105</v>
+      </c>
+      <c r="E90">
+        <v>0.01099213991208732</v>
+      </c>
+      <c r="F90">
+        <v>0.01519864204660147</v>
+      </c>
+      <c r="G90">
+        <v>0.04632092764230351</v>
+      </c>
+      <c r="H90">
+        <v>-0.03782245457297359</v>
+      </c>
+      <c r="I90">
+        <v>0.06496735449655013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1573504632523609</v>
+        <v>0.09589323641276619</v>
       </c>
       <c r="C91">
-        <v>0.1852022885771538</v>
+        <v>0.2060121523553056</v>
       </c>
       <c r="D91">
-        <v>-0.1036422299586185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1071100020324069</v>
+      </c>
+      <c r="E91">
+        <v>0.08024102788357233</v>
+      </c>
+      <c r="F91">
+        <v>-0.07474945190318474</v>
+      </c>
+      <c r="G91">
+        <v>0.01365245719393742</v>
+      </c>
+      <c r="H91">
+        <v>-0.0114594719225679</v>
+      </c>
+      <c r="I91">
+        <v>0.1101981631062873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2260102624912182</v>
+        <v>0.3080679103318827</v>
       </c>
       <c r="C92">
-        <v>-0.2564704352198264</v>
+        <v>-0.1869192552616134</v>
       </c>
       <c r="D92">
-        <v>-0.02724958706739459</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.009841158364167088</v>
+      </c>
+      <c r="E92">
+        <v>0.08571435148699461</v>
+      </c>
+      <c r="F92">
+        <v>-0.03148785154476112</v>
+      </c>
+      <c r="G92">
+        <v>0.03232204758547823</v>
+      </c>
+      <c r="H92">
+        <v>0.007161846883990669</v>
+      </c>
+      <c r="I92">
+        <v>-0.01344029323694299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2815899784153923</v>
+        <v>0.3253884754928464</v>
       </c>
       <c r="C93">
-        <v>-0.253056653688855</v>
+        <v>-0.1535402196713704</v>
       </c>
       <c r="D93">
-        <v>0.02421479196402207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004530878360735656</v>
+      </c>
+      <c r="E93">
+        <v>-0.0357511883193959</v>
+      </c>
+      <c r="F93">
+        <v>-0.0163693651591309</v>
+      </c>
+      <c r="G93">
+        <v>-0.03028283461924382</v>
+      </c>
+      <c r="H93">
+        <v>-0.01467292600573177</v>
+      </c>
+      <c r="I93">
+        <v>0.1303899496611404</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3050583298139337</v>
+        <v>0.1939941586117854</v>
       </c>
       <c r="C94">
-        <v>0.2691469964440487</v>
+        <v>0.342264535386092</v>
       </c>
       <c r="D94">
-        <v>-0.3666956852396945</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3586849565273478</v>
+      </c>
+      <c r="E94">
+        <v>0.05679701467661379</v>
+      </c>
+      <c r="F94">
+        <v>0.09515890407066699</v>
+      </c>
+      <c r="G94">
+        <v>0.2741694183185413</v>
+      </c>
+      <c r="H94">
+        <v>-0.1406620937870175</v>
+      </c>
+      <c r="I94">
+        <v>-0.4190078245946823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02960135336686126</v>
+        <v>0.02777612393416205</v>
       </c>
       <c r="C95">
-        <v>0.04144886646614132</v>
+        <v>0.0629913281593411</v>
       </c>
       <c r="D95">
-        <v>0.08760826629320936</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.117648827422515</v>
+      </c>
+      <c r="E95">
+        <v>0.20523969941781</v>
+      </c>
+      <c r="F95">
+        <v>0.157332474610544</v>
+      </c>
+      <c r="G95">
+        <v>-0.1340358961865622</v>
+      </c>
+      <c r="H95">
+        <v>0.463613456061808</v>
+      </c>
+      <c r="I95">
+        <v>-0.4715806517560068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0003170405771259462</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0002150785130286082</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0004264325825327729</v>
+      </c>
+      <c r="E97">
+        <v>-0.0005353636814846046</v>
+      </c>
+      <c r="F97">
+        <v>0.001478412559595355</v>
+      </c>
+      <c r="G97">
+        <v>-0.001114063555727622</v>
+      </c>
+      <c r="H97">
+        <v>0.001535885865130528</v>
+      </c>
+      <c r="I97">
+        <v>-0.0002574919547820962</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1535623202170152</v>
+        <v>0.1308763839753397</v>
       </c>
       <c r="C98">
-        <v>0.07212701136802843</v>
+        <v>0.1256554212222342</v>
       </c>
       <c r="D98">
-        <v>0.1300251636168304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06376906675163803</v>
+      </c>
+      <c r="E98">
+        <v>-0.2914982646025174</v>
+      </c>
+      <c r="F98">
+        <v>0.1430978882828357</v>
+      </c>
+      <c r="G98">
+        <v>-0.2420724288965623</v>
+      </c>
+      <c r="H98">
+        <v>-0.05674970942593939</v>
+      </c>
+      <c r="I98">
+        <v>0.002065260006437334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002075931934212653</v>
+        <v>0.0007653429367271161</v>
       </c>
       <c r="C101">
-        <v>0.02057623149993431</v>
+        <v>0.02680255923491228</v>
       </c>
       <c r="D101">
-        <v>0.1009648763893033</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1016012134071044</v>
+      </c>
+      <c r="E101">
+        <v>-0.03110186540058406</v>
+      </c>
+      <c r="F101">
+        <v>-0.03004341120269458</v>
+      </c>
+      <c r="G101">
+        <v>0.05260307281059899</v>
+      </c>
+      <c r="H101">
+        <v>0.09819720495320061</v>
+      </c>
+      <c r="I101">
+        <v>0.01795317186992483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.110044386180501</v>
+        <v>0.05780519397334301</v>
       </c>
       <c r="C102">
-        <v>0.1507786362076844</v>
+        <v>0.150910967553694</v>
       </c>
       <c r="D102">
-        <v>-0.07060788883412178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08715183860869345</v>
+      </c>
+      <c r="E102">
+        <v>0.03102602199699822</v>
+      </c>
+      <c r="F102">
+        <v>0.06037628611926859</v>
+      </c>
+      <c r="G102">
+        <v>0.004986553989133033</v>
+      </c>
+      <c r="H102">
+        <v>0.05519397664469466</v>
+      </c>
+      <c r="I102">
+        <v>0.03291794680921423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
